--- a/BOM_SHA-PCB V1.1_PCB1_2024-07-27.xlsx
+++ b/BOM_SHA-PCB V1.1_PCB1_2024-07-27.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F3186-3490-4B8C-B14C-71FBD6588A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63690F-095A-4484-95F8-8D435EF4AAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="4995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="158">
   <si>
     <t>Quantity</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>SAI AUTOMATIONS</t>
   </si>
 </sst>
 </file>
@@ -935,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,6 +1957,11 @@
         <v>146</v>
       </c>
     </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOM_SHA-PCB V1.1_PCB1_2024-07-27.xlsx
+++ b/BOM_SHA-PCB V1.1_PCB1_2024-07-27.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63690F-095A-4484-95F8-8D435EF4AAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C11506-5834-47EF-AB77-344294650922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="4995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="160">
   <si>
     <t>Quantity</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>SAI AUTOMATIONS</t>
+  </si>
+  <si>
+    <t>SHARVI</t>
+  </si>
+  <si>
+    <t>SD103AWS schottky diode</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,6 +605,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="D65" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +961,11 @@
     <col min="4" max="4" width="2.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -973,14 +984,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1016,11 @@
       <c r="H2">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1025,11 +1039,14 @@
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
       <c r="H3">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1048,14 +1065,14 @@
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>150</v>
+      <c r="G4" t="s">
+        <v>149</v>
       </c>
       <c r="H4">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1100,8 +1117,11 @@
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1120,8 +1140,11 @@
       <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1140,8 +1163,11 @@
       <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1160,8 +1186,11 @@
       <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1180,10 +1209,13 @@
       <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1200,11 +1232,11 @@
       <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1223,11 +1255,11 @@
       <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1246,11 +1278,11 @@
       <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1269,11 +1301,11 @@
       <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1292,8 +1324,11 @@
       <c r="F15" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1311,6 +1346,9 @@
       </c>
       <c r="F16" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,6 +1370,9 @@
       <c r="F17" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="G17" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1352,6 +1393,9 @@
       <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="G18" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1372,6 +1416,9 @@
       <c r="F19" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="G19" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1392,6 +1439,9 @@
       <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="G20" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1412,6 +1462,9 @@
       <c r="F21" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="G21" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1432,6 +1485,9 @@
       <c r="F22" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="G22" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1452,6 +1508,9 @@
       <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G23" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1587,6 +1646,9 @@
       <c r="F29" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G29" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1607,6 +1669,9 @@
       <c r="F30" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G30" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1627,6 +1692,9 @@
       <c r="F31" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="G31" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1895,6 +1963,9 @@
       </c>
       <c r="F44" s="4" t="s">
         <v>152</v>
+      </c>
+      <c r="G44" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
